--- a/app/src/main/res/raw/outmigration_form.xlsx
+++ b/app/src/main/res/raw/outmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17670" tabRatio="500"/>
+    <workbookView windowWidth="26265" windowHeight="12105" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="141">
   <si>
     <t>group</t>
   </si>
@@ -145,7 +145,7 @@
     <t>2.1. Migration Type</t>
   </si>
   <si>
-    <t>2.1. Tipo de Imigração</t>
+    <t>2.1. Tipo de Emigração</t>
   </si>
   <si>
     <t>selected_only</t>
@@ -202,10 +202,10 @@
     <t>reasons</t>
   </si>
   <si>
-    <t>5.2. Reason for In Migration</t>
-  </si>
-  <si>
-    <t>5.2. Causas da migração</t>
+    <t>5.2. Reason for Outmigration</t>
+  </si>
+  <si>
+    <t>5.2. Causas da emigração</t>
   </si>
   <si>
     <t>migrationReasonOther</t>
@@ -214,7 +214,7 @@
     <t>5.2.1. Specify other reason for migration</t>
   </si>
   <si>
-    <t>5.2.1. Especifique outras causas da migração</t>
+    <t>5.2.1. Especifique outras causas da emigração</t>
   </si>
   <si>
     <t>${migrationReason} = 'OTHER'</t>
@@ -367,13 +367,13 @@
     <t>Não sabe</t>
   </si>
   <si>
-    <t>ENT</t>
-  </si>
-  <si>
-    <t>Internal InMigration</t>
-  </si>
-  <si>
-    <t>Imigração Interna</t>
+    <t>EXT</t>
+  </si>
+  <si>
+    <t>External Outmigration</t>
+  </si>
+  <si>
+    <t>Emigração Externa</t>
   </si>
   <si>
     <t>CAME_WITH_RELATIVES</t>
@@ -473,9 +473,6 @@
   </si>
   <si>
     <t>External OutMigration</t>
-  </si>
-  <si>
-    <t>Emigração Externa</t>
   </si>
 </sst>
 </file>
@@ -484,9 +481,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -534,13 +531,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -555,6 +545,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -564,16 +605,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,38 +635,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,47 +665,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -708,31 +705,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,139 +873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,6 +902,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -923,17 +944,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,168 +984,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1489,8 +1486,8 @@
   <sheetPr/>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1612,7 +1609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1631,6 +1628,9 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="C16:D16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -2442,7 +2442,7 @@
         <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/outmigration_form.xlsx
+++ b/app/src/main/res/raw/outmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26265" windowHeight="12105" tabRatio="500"/>
+    <workbookView windowWidth="26265" windowHeight="9390" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>options</t>
   </si>
   <si>
-    <t>foreach_count</t>
+    <t>repeat_count</t>
   </si>
   <si>
     <t>label</t>
@@ -480,10 +480,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -531,7 +531,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,30 +590,56 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,16 +651,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,75 +667,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -693,31 +693,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,151 +867,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,6 +884,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -903,59 +936,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -966,6 +946,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,148 +973,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1487,7 +1487,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>

--- a/app/src/main/res/raw/outmigration_form.xlsx
+++ b/app/src/main/res/raw/outmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26265" windowHeight="9390" tabRatio="500"/>
+    <workbookView windowHeight="7350" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
     <t>form_name::pt</t>
   </si>
   <si>
-    <t>rawInMigration</t>
+    <t>rawOutMigration</t>
   </si>
   <si>
     <t>External OutMigration</t>
@@ -481,9 +481,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -537,6 +537,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -544,8 +576,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,6 +592,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -568,53 +659,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,51 +670,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -693,43 +693,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,13 +831,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,121 +873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,8 +890,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,21 +935,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -946,15 +946,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,6 +967,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -987,142 +987,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1486,7 +1486,7 @@
   <sheetPr/>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -2412,8 +2412,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="2"/>

--- a/app/src/main/res/raw/outmigration_form.xlsx
+++ b/app/src/main/res/raw/outmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="7350" tabRatio="500" activeTab="2"/>
+    <workbookView windowHeight="14055" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <author>paul</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>paul:</t>
         </r>
@@ -36,7 +36,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 The option is readonly, not choosable.
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="177">
   <si>
     <t>group</t>
   </si>
@@ -79,6 +79,9 @@
     <t>label::pt</t>
   </si>
   <si>
+    <t>label::fr</t>
+  </si>
+  <si>
     <t>default_value</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
     <t>1.0. Código da Visita</t>
   </si>
   <si>
+    <t>1.0. Code de Visite</t>
+  </si>
+  <si>
     <t>memberCode</t>
   </si>
   <si>
@@ -121,6 +127,9 @@
     <t>1.1. Código do Membro</t>
   </si>
   <si>
+    <t>1.1. Code de Membre</t>
+  </si>
+  <si>
     <t>memberName</t>
   </si>
   <si>
@@ -130,7 +139,7 @@
     <t>1.2. Nome completo</t>
   </si>
   <si>
-    <t>migration</t>
+    <t>1.2. Nom et prénom du Membre</t>
   </si>
   <si>
     <t>migrationType</t>
@@ -148,6 +157,9 @@
     <t>2.1. Tipo de Emigração</t>
   </si>
   <si>
+    <t>2.1. Type d'émigration</t>
+  </si>
+  <si>
     <t>selected_only</t>
   </si>
   <si>
@@ -160,6 +172,9 @@
     <t>3.1. Código do Agregado de Origem</t>
   </si>
   <si>
+    <t>3.1. Code du Ménage d'Origine</t>
+  </si>
+  <si>
     <t>destinationCode</t>
   </si>
   <si>
@@ -169,6 +184,9 @@
     <t>4.1. Código Agregado de Destino</t>
   </si>
   <si>
+    <t>4.1 Code du Ménage de Destination</t>
+  </si>
+  <si>
     <t>${migrationType} = 'CHG'</t>
   </si>
   <si>
@@ -181,6 +199,9 @@
     <t>4.1.1. Especifique o destino para onde o membro vai-se mudar</t>
   </si>
   <si>
+    <t>4.1.1. Préciser la destination où le membre déménage</t>
+  </si>
+  <si>
     <t>${migrationType} = 'EXT'</t>
   </si>
   <si>
@@ -193,7 +214,10 @@
     <t>5.1. Migration Date</t>
   </si>
   <si>
-    <t>5.1. Data da Migração?</t>
+    <t>5.1. Data da migração?</t>
+  </si>
+  <si>
+    <t>5.1. Date de Migration?</t>
   </si>
   <si>
     <t>migrationReason</t>
@@ -202,19 +226,25 @@
     <t>reasons</t>
   </si>
   <si>
-    <t>5.2. Reason for Outmigration</t>
+    <t>5.2. Reason for Out-migration</t>
   </si>
   <si>
     <t>5.2. Causas da emigração</t>
   </si>
   <si>
+    <t>5.2. Les causes de l'émigration</t>
+  </si>
+  <si>
     <t>migrationReasonOther</t>
   </si>
   <si>
     <t>5.2.1. Specify other reason for migration</t>
   </si>
   <si>
-    <t>5.2.1. Especifique outras causas da emigração</t>
+    <t>5.2.1. Especifique outras causas da migração</t>
+  </si>
+  <si>
+    <t>5.2.1. Précisez les autres causes de migration</t>
   </si>
   <si>
     <t>${migrationReason} = 'OTHER'</t>
@@ -229,10 +259,13 @@
     <t>username</t>
   </si>
   <si>
-    <t>6.1. Collected By Fieldworker</t>
-  </si>
-  <si>
-    <t>6.1. Códido do Inquiridor</t>
+    <t>6.1. Collected by Fieldworker</t>
+  </si>
+  <si>
+    <t>6.1. Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>6.1. Code de l'enquêteur</t>
   </si>
   <si>
     <t>collectedDate</t>
@@ -247,13 +280,19 @@
     <t>6.2. Data da Visita</t>
   </si>
   <si>
+    <t>6.2. Date de collecte</t>
+  </si>
+  <si>
     <t>modules</t>
   </si>
   <si>
     <t>Access Granted to Modules</t>
   </si>
   <si>
-    <t>Acesso permitido ao Módulos</t>
+    <t>Acesso permitido aos Módulos</t>
+  </si>
+  <si>
+    <t>Accès aux Modules autorisé</t>
   </si>
   <si>
     <t>value</t>
@@ -271,6 +310,9 @@
     <t>Masculino</t>
   </si>
   <si>
+    <t>Masculin</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
@@ -280,6 +322,9 @@
     <t>Feminino</t>
   </si>
   <si>
+    <t>Féminin</t>
+  </si>
+  <si>
     <t>relationships</t>
   </si>
   <si>
@@ -292,6 +337,9 @@
     <t>Chefe do Agregado</t>
   </si>
   <si>
+    <t>Chef de ménage</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
@@ -301,7 +349,10 @@
     <t>Spouse</t>
   </si>
   <si>
-    <t>Esposo/a</t>
+    <t>Cônjuge</t>
+  </si>
+  <si>
+    <t>Conjoint</t>
   </si>
   <si>
     <t>SON</t>
@@ -313,6 +364,9 @@
     <t>Filho/Filha</t>
   </si>
   <si>
+    <t>Fils/fille</t>
+  </si>
+  <si>
     <t>BRO</t>
   </si>
   <si>
@@ -322,6 +376,9 @@
     <t>Irmão/Irmã</t>
   </si>
   <si>
+    <t>Frère/Sœur</t>
+  </si>
+  <si>
     <t>PAR</t>
   </si>
   <si>
@@ -331,6 +388,9 @@
     <t>Pai/Mãe</t>
   </si>
   <si>
+    <t>Père/Mère</t>
+  </si>
+  <si>
     <t>GCH</t>
   </si>
   <si>
@@ -340,126 +400,171 @@
     <t>Neto/a</t>
   </si>
   <si>
+    <t>Petits-enfants</t>
+  </si>
+  <si>
     <t>NOR</t>
   </si>
   <si>
-    <t>Not Related</t>
+    <t>Not related</t>
   </si>
   <si>
     <t>Sem relação</t>
   </si>
   <si>
+    <t>Aucune relation</t>
+  </si>
+  <si>
     <t>OTH</t>
   </si>
   <si>
-    <t>Other Relative</t>
+    <t>Other relative</t>
   </si>
   <si>
     <t>Outro parente</t>
   </si>
   <si>
+    <t>Autre parent</t>
+  </si>
+  <si>
     <t>DNK</t>
   </si>
   <si>
+    <t>Don't know</t>
+  </si>
+  <si>
+    <t>Não sabe</t>
+  </si>
+  <si>
+    <t>Ne sait pas</t>
+  </si>
+  <si>
+    <t>EXT</t>
+  </si>
+  <si>
+    <t>External Out-migration</t>
+  </si>
+  <si>
+    <t>Emigração Externa</t>
+  </si>
+  <si>
+    <t>Émigration externe</t>
+  </si>
+  <si>
+    <t>CAME_WITH_RELATIVES</t>
+  </si>
+  <si>
+    <t>Came with relative(s)</t>
+  </si>
+  <si>
+    <t>Veio com os parentes</t>
+  </si>
+  <si>
+    <t>Il est venu avec sa famille</t>
+  </si>
+  <si>
+    <t>FARMING</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>Agricultura</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>MARITAL_CHANGE</t>
+  </si>
+  <si>
+    <t>Change in marital status</t>
+  </si>
+  <si>
+    <t>Mudança de estado civil</t>
+  </si>
+  <si>
+    <t>Changement d'état civil</t>
+  </si>
+  <si>
+    <t>FISHING</t>
+  </si>
+  <si>
+    <t>Fishing</t>
+  </si>
+  <si>
+    <t>Pesca</t>
+  </si>
+  <si>
+    <t>Pêche</t>
+  </si>
+  <si>
+    <t>EDUCATION</t>
+  </si>
+  <si>
+    <t>Education/School</t>
+  </si>
+  <si>
+    <t>Educação</t>
+  </si>
+  <si>
+    <t>Éducation</t>
+  </si>
+  <si>
+    <t>HEALTH_REASON</t>
+  </si>
+  <si>
+    <t>Health reasons</t>
+  </si>
+  <si>
+    <t>Saúde</t>
+  </si>
+  <si>
+    <t>Santé</t>
+  </si>
+  <si>
+    <t>WORK</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Trabalho</t>
+  </si>
+  <si>
+    <t>Travail</t>
+  </si>
+  <si>
+    <t>NEW_HOUSE</t>
+  </si>
+  <si>
+    <t>Moved to new house</t>
+  </si>
+  <si>
+    <t>Mudança para nova casa</t>
+  </si>
+  <si>
+    <t>Déménagement dans une nouvelle maison</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Outra</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>DONT_KNOW</t>
+  </si>
+  <si>
     <t>Don't Know</t>
   </si>
   <si>
-    <t>Não sabe</t>
-  </si>
-  <si>
-    <t>EXT</t>
-  </si>
-  <si>
-    <t>External Outmigration</t>
-  </si>
-  <si>
-    <t>Emigração Externa</t>
-  </si>
-  <si>
-    <t>CAME_WITH_RELATIVES</t>
-  </si>
-  <si>
-    <t>Came with relative(s)</t>
-  </si>
-  <si>
-    <t>Veio com os parentes</t>
-  </si>
-  <si>
-    <t>FARMING</t>
-  </si>
-  <si>
-    <t>Farming</t>
-  </si>
-  <si>
-    <t>Agricultura</t>
-  </si>
-  <si>
-    <t>MARITAL_CHANGE</t>
-  </si>
-  <si>
-    <t>Change in Marital Status</t>
-  </si>
-  <si>
-    <t>Mudança de estado civil</t>
-  </si>
-  <si>
-    <t>FISHING</t>
-  </si>
-  <si>
-    <t>Fishing</t>
-  </si>
-  <si>
-    <t>Pesca</t>
-  </si>
-  <si>
-    <t>EDUCATION</t>
-  </si>
-  <si>
-    <t>Education/Scholl</t>
-  </si>
-  <si>
-    <t>Educação</t>
-  </si>
-  <si>
-    <t>HEALTH_REASON</t>
-  </si>
-  <si>
-    <t>Health Reasons</t>
-  </si>
-  <si>
-    <t>Saúde</t>
-  </si>
-  <si>
-    <t>WORK</t>
-  </si>
-  <si>
-    <t>Work</t>
-  </si>
-  <si>
-    <t>Trabalho</t>
-  </si>
-  <si>
-    <t>NEW_HOUSE</t>
-  </si>
-  <si>
-    <t>Moved to new house</t>
-  </si>
-  <si>
-    <t>Mudança para nova casa</t>
-  </si>
-  <si>
-    <t>OTHER</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Outra</t>
-  </si>
-  <si>
-    <t>DONT_KNOW</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -467,6 +572,9 @@
   </si>
   <si>
     <t>form_name::pt</t>
+  </si>
+  <si>
+    <t>form_name::fr</t>
   </si>
   <si>
     <t>rawOutMigration</t>
@@ -480,12 +588,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -495,16 +603,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -530,29 +633,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -561,26 +641,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -599,21 +678,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -629,6 +717,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -636,25 +746,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -666,8 +761,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,16 +778,16 @@
     <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,43 +796,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,144 +982,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -887,11 +996,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,21 +1031,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,15 +1067,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -984,187 +1075,228 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1484,30 +1616,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="14.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="20.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="11.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="12.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="13.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="51.5714285714286" customWidth="1"/>
-    <col min="9" max="9" width="52.1714285714286" customWidth="1"/>
-    <col min="10" max="10" width="16.352380952381" customWidth="1"/>
-    <col min="11" max="11" width="12.1619047619048" customWidth="1"/>
-    <col min="12" max="12" width="9.28571428571429" customWidth="1"/>
-    <col min="14" max="14" width="31" customWidth="1"/>
-    <col min="15" max="15" width="13.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="11.1809523809524" customWidth="1"/>
+    <col min="3" max="3" width="14.1809523809524" customWidth="1"/>
+    <col min="4" max="4" width="20.1809523809524" customWidth="1"/>
+    <col min="5" max="5" width="11.7238095238095" customWidth="1"/>
+    <col min="6" max="6" width="12.2666666666667" customWidth="1"/>
+    <col min="7" max="7" width="13.7238095238095" customWidth="1"/>
+    <col min="8" max="8" width="55.6285714285714" customWidth="1"/>
+    <col min="9" max="9" width="55.4571428571429" customWidth="1"/>
+    <col min="10" max="10" width="52.1809523809524" customWidth="1"/>
+    <col min="11" max="11" width="16.2666666666667" customWidth="1"/>
+    <col min="12" max="12" width="12.1809523809524" customWidth="1"/>
+    <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
+    <col min="15" max="15" width="31" customWidth="1"/>
+    <col min="16" max="16" width="13.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1535,7 +1668,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1547,358 +1680,396 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>17</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="12" t="s">
-        <v>18</v>
+      <c r="H2" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="L2" s="1"/>
       <c r="M2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N2" s="14"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1"/>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1"/>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
-      <c r="O5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1"/>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
-      <c r="N7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" t="b">
+        <v>48</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" t="b">
         <v>1</v>
       </c>
-      <c r="N8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" ht="13" customHeight="1" spans="1:12">
+      <c r="O8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" ht="13" customHeight="1" spans="1:13">
       <c r="A9" s="1"/>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" t="b">
+        <v>54</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1"/>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" t="b">
+        <v>59</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="1"/>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" t="b">
+        <v>63</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" t="b">
         <v>1</v>
       </c>
-      <c r="N11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
       <c r="M12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
       <c r="M13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
       <c r="M14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1"/>
@@ -1943,26 +2114,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="25.8571428571429" customWidth="1"/>
-    <col min="3" max="4" width="22.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="13.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="12.5428571428571" customWidth="1"/>
+    <col min="2" max="2" width="25.8190476190476" customWidth="1"/>
+    <col min="3" max="4" width="22.8190476190476" customWidth="1"/>
+    <col min="5" max="5" width="32.6285714285714" customWidth="1"/>
+    <col min="6" max="6" width="13.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -1970,435 +2142,516 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E2" s="12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="E3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E4" s="12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="F4" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="6" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="E5" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="6" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E6" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>109</v>
+        <v>131</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>112</v>
+        <v>135</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>115</v>
+        <v>139</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>118</v>
+        <v>143</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>121</v>
+        <v>147</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>124</v>
+        <v>151</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" t="s">
         <v>127</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E23" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="7"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="7"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="7"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="7"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="7"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="7"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="7"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="7"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="7"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="7"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="7"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="7"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="37" spans="5:5">
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="5:5">
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="5:5">
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="5:5">
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="5:5">
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="5:5">
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="5:5">
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="5:5">
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="5:5">
-      <c r="E45" s="9"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="8"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="8"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="8"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="8"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="8"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2410,39 +2663,46 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="20.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="23.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="21.7238095238095" customWidth="1"/>
+    <col min="2" max="2" width="20.4571428571429" customWidth="1"/>
+    <col min="3" max="3" width="23.2666666666667" customWidth="1"/>
+    <col min="4" max="4" width="25.3619047619048" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>173</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>131</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/outmigration_form.xlsx
+++ b/app/src/main/res/raw/outmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14055" tabRatio="500"/>
+    <workbookView xWindow="9210" windowWidth="9210" windowHeight="6465" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="185">
   <si>
     <t>group</t>
   </si>
@@ -100,6 +100,9 @@
     <t>display_style</t>
   </si>
   <si>
+    <t>hidden</t>
+  </si>
+  <si>
     <t>header</t>
   </si>
   <si>
@@ -281,6 +284,27 @@
   </si>
   <si>
     <t>6.2. Date de collecte</t>
+  </si>
+  <si>
+    <t>collectedDeviceId</t>
+  </si>
+  <si>
+    <t>device_id</t>
+  </si>
+  <si>
+    <t>Device Id</t>
+  </si>
+  <si>
+    <t>collectedHouseholdId</t>
+  </si>
+  <si>
+    <t>Collected Household Id</t>
+  </si>
+  <si>
+    <t>collectedMemberId</t>
+  </si>
+  <si>
+    <t>Collected Member Id</t>
   </si>
   <si>
     <t>modules</t>
@@ -588,10 +612,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -633,33 +657,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -671,8 +687,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,9 +725,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,14 +748,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,14 +763,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,7 +778,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,9 +792,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,187 +826,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,6 +1035,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1022,30 +1070,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,21 +1109,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1108,155 +1117,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1295,12 +1319,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1616,10 +1648,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1640,7 +1672,7 @@
     <col min="16" max="16" width="13.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1668,7 +1700,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1683,35 +1715,38 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="22" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1721,29 +1756,29 @@
       <c r="N2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="18"/>
+      <c r="O2" s="21"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
@@ -1754,22 +1789,22 @@
     <row r="4" spans="1:14">
       <c r="A4" s="1"/>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
@@ -1780,25 +1815,25 @@
     <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+        <v>36</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
@@ -1806,28 +1841,28 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1"/>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+        <v>41</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
@@ -1838,22 +1873,22 @@
     <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+        <v>45</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
@@ -1861,54 +1896,54 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
       <c r="M8" t="b">
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" ht="13" customHeight="1" spans="1:13">
       <c r="A9" s="1"/>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+        <v>56</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
       <c r="M9" t="b">
         <v>1</v>
       </c>
@@ -1916,25 +1951,25 @@
     <row r="10" spans="1:13">
       <c r="A10" s="1"/>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+        <v>61</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
       <c r="M10" t="b">
         <v>1</v>
       </c>
@@ -1942,52 +1977,52 @@
     <row r="11" spans="1:15">
       <c r="A11" s="1"/>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+        <v>65</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
       <c r="M11" t="b">
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+        <v>72</v>
+      </c>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
       <c r="M12" t="b">
         <v>1</v>
       </c>
@@ -1997,25 +2032,25 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+        <v>77</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
       <c r="M13" t="b">
         <v>1</v>
       </c>
@@ -2023,62 +2058,158 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
+    <row r="14" spans="1:17">
+      <c r="A14" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I14" t="s">
+      <c r="E14" s="17" t="s">
         <v>79</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" t="b">
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="N14" t="b">
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+    <row r="15" spans="1:17">
+      <c r="A15" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1"/>
@@ -2103,6 +2234,15 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
@@ -2134,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2151,382 +2291,382 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D18" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D21" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D22" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F23" s="10"/>
     </row>
@@ -2679,30 +2819,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/outmigration_form.xlsx
+++ b/app/src/main/res/raw/outmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="9210" windowWidth="9210" windowHeight="6465" tabRatio="500"/>
+    <workbookView windowWidth="27795" windowHeight="12270" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -262,13 +262,13 @@
     <t>username</t>
   </si>
   <si>
-    <t>6.1. Collected by Fieldworker</t>
-  </si>
-  <si>
-    <t>6.1. Código do Inquiridor</t>
-  </si>
-  <si>
-    <t>6.1. Code de l'enquêteur</t>
+    <t>Collected by Fieldworker</t>
+  </si>
+  <si>
+    <t>Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>Code de l'enquêteur</t>
   </si>
   <si>
     <t>collectedDate</t>
@@ -277,13 +277,13 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>6.2. Collected Date</t>
-  </si>
-  <si>
-    <t>6.2. Data da Visita</t>
-  </si>
-  <si>
-    <t>6.2. Date de collecte</t>
+    <t>Collected Date</t>
+  </si>
+  <si>
+    <t>Data da Visita</t>
+  </si>
+  <si>
+    <t>Date de collecte</t>
   </si>
   <si>
     <t>collectedDeviceId</t>
@@ -612,10 +612,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -649,9 +649,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,10 +670,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,29 +739,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -719,14 +748,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,6 +764,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,54 +792,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,25 +826,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,43 +994,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,116 +1010,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1037,9 +1037,71 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,21 +1117,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,29 +1138,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1132,155 +1159,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1316,23 +1378,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1651,7 +1724,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:M16"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1700,7 +1773,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1715,13 +1788,13 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1731,15 +1804,15 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I2" t="s">
@@ -1756,7 +1829,7 @@
       <c r="N2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="21"/>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
@@ -1777,8 +1850,8 @@
       <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
@@ -1803,8 +1876,8 @@
       <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
@@ -1832,8 +1905,8 @@
       <c r="J5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
@@ -1861,8 +1934,8 @@
       <c r="J6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
@@ -1887,8 +1960,8 @@
       <c r="J7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
@@ -1916,8 +1989,8 @@
       <c r="J8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
       <c r="M8" t="b">
         <v>1</v>
       </c>
@@ -1942,8 +2015,8 @@
       <c r="J9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
       <c r="M9" t="b">
         <v>1</v>
       </c>
@@ -1968,8 +2041,8 @@
       <c r="J10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
       <c r="M10" t="b">
         <v>1</v>
       </c>
@@ -1988,11 +2061,11 @@
       <c r="I11" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
       <c r="M11" t="b">
         <v>1</v>
       </c>
@@ -2000,216 +2073,216 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1" t="s">
+    <row r="12" s="15" customFormat="1" spans="1:14">
+      <c r="A12" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" t="s">
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="15" t="s">
         <v>71</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" t="b">
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="N12" t="b">
+      <c r="N12" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1" t="s">
+    <row r="13" s="16" customFormat="1" spans="1:14">
+      <c r="A13" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="16" t="s">
         <v>76</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" t="b">
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="N13" t="b">
+      <c r="N13" s="16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="16" t="s">
+    <row r="14" s="16" customFormat="1" spans="1:17">
+      <c r="A14" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17" t="s">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="16" t="s">
         <v>80</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17" t="b">
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17" t="b">
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="16" t="s">
+    <row r="15" s="16" customFormat="1" spans="1:17">
+      <c r="A15" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17" t="s">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="16" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17" t="b">
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17" t="b">
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="16" t="s">
+    <row r="16" s="16" customFormat="1" spans="1:17">
+      <c r="A16" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17" t="s">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="16" t="s">
         <v>84</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17" t="b">
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17" t="b">
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="1" t="s">
+    <row r="17" s="17" customFormat="1" spans="1:14">
+      <c r="A17" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="17" t="s">
         <v>87</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" t="b">
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="N17" t="b">
+      <c r="N17" s="17" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1"/>

--- a/app/src/main/res/raw/outmigration_form.xlsx
+++ b/app/src/main/res/raw/outmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12270" tabRatio="500"/>
+    <workbookView windowWidth="18045" windowHeight="12015" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -613,8 +613,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
@@ -649,15 +649,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,24 +665,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -697,37 +685,6 @@
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -746,9 +703,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,38 +787,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,67 +826,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,115 +1006,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,15 +1097,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1117,6 +1108,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,17 +1175,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1168,177 +1194,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1723,8 +1723,8 @@
   <sheetPr/>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -2135,16 +2135,12 @@
       <c r="A14" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
         <v>78</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
       <c r="H14" s="16" t="s">
         <v>80</v>
       </c>
@@ -2156,12 +2152,9 @@
       </c>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
-      <c r="M14" s="16"/>
       <c r="N14" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
       <c r="Q14" s="16" t="b">
         <v>1</v>
       </c>
@@ -2170,16 +2163,12 @@
       <c r="A15" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
         <v>81</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
       <c r="H15" s="16" t="s">
         <v>82</v>
       </c>
@@ -2191,12 +2180,9 @@
       </c>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
-      <c r="M15" s="16"/>
       <c r="N15" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
       <c r="Q15" s="16" t="b">
         <v>1</v>
       </c>
@@ -2205,16 +2191,12 @@
       <c r="A16" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
         <v>83</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
       <c r="H16" s="16" t="s">
         <v>84</v>
       </c>
@@ -2226,12 +2208,9 @@
       </c>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
-      <c r="M16" s="16"/>
       <c r="N16" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
       <c r="Q16" s="16" t="b">
         <v>1</v>
       </c>
@@ -2329,8 +2308,8 @@
   <sheetPr/>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>

--- a/app/src/main/res/raw/outmigration_form.xlsx
+++ b/app/src/main/res/raw/outmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18045" windowHeight="12015" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="19485" windowHeight="7560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -478,13 +478,13 @@
     <t>CAME_WITH_RELATIVES</t>
   </si>
   <si>
-    <t>Came with relative(s)</t>
-  </si>
-  <si>
-    <t>Veio com os parentes</t>
-  </si>
-  <si>
-    <t>Il est venu avec sa famille</t>
+    <t>Went with relative(s)</t>
+  </si>
+  <si>
+    <t>Foi com os parentes</t>
+  </si>
+  <si>
+    <t>Est allé avec des proches</t>
   </si>
   <si>
     <t>FARMING</t>
@@ -612,10 +612,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -649,9 +649,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,9 +664,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,11 +694,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -697,15 +732,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,50 +754,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -771,8 +762,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,16 +779,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -826,13 +826,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,7 +898,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,13 +934,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,97 +982,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,37 +1006,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,21 +1097,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1136,6 +1121,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1147,6 +1156,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1174,171 +1194,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2309,7 +2309,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C23"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>

--- a/app/src/main/res/raw/outmigration_form.xlsx
+++ b/app/src/main/res/raw/outmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="7560" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="18195" windowHeight="9375" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
     <t>Émigration externe</t>
   </si>
   <si>
-    <t>CAME_WITH_RELATIVES</t>
+    <t>WENT_WITH_RELATIVES</t>
   </si>
   <si>
     <t>Went with relative(s)</t>
@@ -612,10 +612,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -672,10 +672,26 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,10 +703,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -701,8 +724,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,16 +755,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,39 +764,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,7 +793,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -832,181 +832,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,50 +1097,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,11 +1123,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1188,148 +1147,189 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1342,7 +1342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1364,10 +1364,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1724,7 +1727,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1773,7 +1776,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1788,7 +1791,7 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="30" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -1804,15 +1807,15 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="19" t="s">
         <v>20</v>
       </c>
       <c r="I2" t="s">
@@ -1829,7 +1832,7 @@
       <c r="N2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="29"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
@@ -1850,8 +1853,8 @@
       <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
       <c r="M3" t="b">
         <v>1</v>
       </c>
@@ -1876,8 +1879,8 @@
       <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
@@ -1905,8 +1908,8 @@
       <c r="J5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
@@ -1934,8 +1937,8 @@
       <c r="J6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
@@ -1960,8 +1963,8 @@
       <c r="J7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
@@ -1989,8 +1992,8 @@
       <c r="J8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
       <c r="M8" t="b">
         <v>1</v>
       </c>
@@ -2015,8 +2018,8 @@
       <c r="J9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
       <c r="M9" t="b">
         <v>1</v>
       </c>
@@ -2041,8 +2044,8 @@
       <c r="J10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
       <c r="M10" t="b">
         <v>1</v>
       </c>
@@ -2061,11 +2064,11 @@
       <c r="I11" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
       <c r="M11" t="b">
         <v>1</v>
       </c>
@@ -2073,195 +2076,195 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" s="15" customFormat="1" spans="1:14">
-      <c r="A12" s="19" t="s">
+    <row r="12" s="16" customFormat="1" spans="1:14">
+      <c r="A12" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="15" t="s">
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="16" t="s">
         <v>71</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="15" t="b">
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="N12" s="15" t="b">
+      <c r="N12" s="16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="16" customFormat="1" spans="1:14">
-      <c r="A13" s="20" t="s">
+    <row r="13" s="17" customFormat="1" spans="1:14">
+      <c r="A13" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="17" t="s">
         <v>76</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="16" t="b">
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="N13" s="16" t="b">
+      <c r="N13" s="17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="16" customFormat="1" spans="1:17">
-      <c r="A14" s="20" t="s">
+    <row r="14" s="17" customFormat="1" spans="1:17">
+      <c r="A14" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="17" t="s">
         <v>80</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="N14" s="16" t="b">
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="N14" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="Q14" s="16" t="b">
+      <c r="Q14" s="17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="16" customFormat="1" spans="1:17">
-      <c r="A15" s="20" t="s">
+    <row r="15" s="17" customFormat="1" spans="1:17">
+      <c r="A15" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="17" t="s">
         <v>82</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="N15" s="16" t="b">
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="N15" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="Q15" s="16" t="b">
+      <c r="Q15" s="17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="16" customFormat="1" spans="1:17">
-      <c r="A16" s="20" t="s">
+    <row r="16" s="17" customFormat="1" spans="1:17">
+      <c r="A16" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="17" t="s">
         <v>84</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="N16" s="16" t="b">
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="N16" s="17" t="b">
         <v>1</v>
       </c>
-      <c r="Q16" s="16" t="b">
+      <c r="Q16" s="17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="17" customFormat="1" spans="1:14">
-      <c r="A17" s="21" t="s">
+    <row r="17" s="18" customFormat="1" spans="1:14">
+      <c r="A17" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="18" t="s">
         <v>87</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="17" t="b">
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N17" s="17" t="b">
+      <c r="N17" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1"/>
@@ -2309,7 +2312,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -2354,7 +2357,7 @@
       <c r="D2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>94</v>
       </c>
       <c r="F2" s="3"/>
@@ -2372,7 +2375,7 @@
       <c r="D3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>98</v>
       </c>
       <c r="F3" s="3"/>
@@ -2390,10 +2393,10 @@
       <c r="D4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2410,7 +2413,7 @@
       <c r="D5" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2427,7 +2430,7 @@
       <c r="D6" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2444,7 +2447,7 @@
       <c r="D7" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2461,7 +2464,7 @@
       <c r="D8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="15" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2478,7 +2481,7 @@
       <c r="D9" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2495,7 +2498,7 @@
       <c r="D10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2512,7 +2515,7 @@
       <c r="D11" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="15" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2529,7 +2532,7 @@
       <c r="D12" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="15" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2571,7 +2574,7 @@
       <c r="A15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>145</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -2588,7 +2591,7 @@
       <c r="A16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>149</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -2605,10 +2608,10 @@
       <c r="A17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="11" t="s">
         <v>154</v>
       </c>
       <c r="D17" t="s">
@@ -2622,7 +2625,7 @@
       <c r="A18" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -2639,7 +2642,7 @@
       <c r="A19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -2656,7 +2659,7 @@
       <c r="A20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="11" t="s">
         <v>165</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -2673,7 +2676,7 @@
       <c r="A21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -2690,10 +2693,10 @@
       <c r="A22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="11" t="s">
         <v>174</v>
       </c>
       <c r="D22" t="s">
@@ -2724,7 +2727,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8"/>
-      <c r="B24" s="11"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -2732,15 +2735,15 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="8"/>
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8"/>
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -2748,7 +2751,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8"/>
-      <c r="B27" s="11"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -2756,7 +2759,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="8"/>
-      <c r="B28" s="11"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -2764,15 +2767,15 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="8"/>
-      <c r="B29" s="11"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="9"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="8"/>
-      <c r="B30" s="11"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -2780,7 +2783,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="8"/>
-      <c r="B31" s="11"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -2788,7 +2791,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="8"/>
-      <c r="B32" s="11"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -2796,7 +2799,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="8"/>
-      <c r="B33" s="11"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -2804,7 +2807,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="8"/>
-      <c r="B34" s="11"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -2812,7 +2815,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="8"/>
-      <c r="B35" s="11"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -2828,7 +2831,7 @@
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="6:6">
-      <c r="F40" s="9"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="6:6">
       <c r="F41" s="10"/>

--- a/app/src/main/res/raw/outmigration_form.xlsx
+++ b/app/src/main/res/raw/outmigration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18195" windowHeight="9375" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="27795" windowHeight="12195" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>paul</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="225">
   <si>
     <t>group</t>
   </si>
@@ -82,6 +82,9 @@
     <t>label::fr</t>
   </si>
   <si>
+    <t>label::am</t>
+  </si>
+  <si>
     <t>default_value</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>1.0. Code de Visite</t>
   </si>
   <si>
+    <t xml:space="preserve">1.0. የጉብኝት ኮድ  </t>
+  </si>
+  <si>
     <t>memberCode</t>
   </si>
   <si>
@@ -133,6 +139,9 @@
     <t>1.1. Code de Membre</t>
   </si>
   <si>
+    <t xml:space="preserve">1.1. የአባል ኮድ  </t>
+  </si>
+  <si>
     <t>memberName</t>
   </si>
   <si>
@@ -145,6 +154,9 @@
     <t>1.2. Nom et prénom du Membre</t>
   </si>
   <si>
+    <t xml:space="preserve">1.2. የአባል ስም  </t>
+  </si>
+  <si>
     <t>migrationType</t>
   </si>
   <si>
@@ -163,6 +175,9 @@
     <t>2.1. Type d'émigration</t>
   </si>
   <si>
+    <t xml:space="preserve">2.1. የእንቅስቃሴ አይነት  </t>
+  </si>
+  <si>
     <t>selected_only</t>
   </si>
   <si>
@@ -178,6 +193,9 @@
     <t>3.1. Code du Ménage d'Origine</t>
   </si>
   <si>
+    <t xml:space="preserve">3.1. የመነሻ ቤተሰብ ኮድ  </t>
+  </si>
+  <si>
     <t>destinationCode</t>
   </si>
   <si>
@@ -190,6 +208,9 @@
     <t>4.1 Code du Ménage de Destination</t>
   </si>
   <si>
+    <t xml:space="preserve">4.1. የመድረሻ ቤተሰብ ኮድ  </t>
+  </si>
+  <si>
     <t>${migrationType} = 'CHG'</t>
   </si>
   <si>
@@ -205,6 +226,9 @@
     <t>4.1.1. Préciser la destination où le membre déménage</t>
   </si>
   <si>
+    <t xml:space="preserve">4.1.1. አባሉ የሚሄደውን የመድረሻ ቦታ ዝርዝር አሳይ  </t>
+  </si>
+  <si>
     <t>${migrationType} = 'EXT'</t>
   </si>
   <si>
@@ -223,6 +247,9 @@
     <t>5.1. Date de Migration?</t>
   </si>
   <si>
+    <t xml:space="preserve">5.1. የእንቅስቃሴ ቀን  </t>
+  </si>
+  <si>
     <t>migrationReason</t>
   </si>
   <si>
@@ -238,6 +265,9 @@
     <t>5.2. Les causes de l'émigration</t>
   </si>
   <si>
+    <t xml:space="preserve">5.2. የውጣት እንቅስቃሴ ምክንያት  </t>
+  </si>
+  <si>
     <t>migrationReasonOther</t>
   </si>
   <si>
@@ -250,6 +280,9 @@
     <t>5.2.1. Précisez les autres causes de migration</t>
   </si>
   <si>
+    <t xml:space="preserve">5.2.1. ሌላ የእንቅስቃሴ ምክንያት ዝርዝር አሳይ  </t>
+  </si>
+  <si>
     <t>${migrationReason} = 'OTHER'</t>
   </si>
   <si>
@@ -271,6 +304,9 @@
     <t>Code de l'enquêteur</t>
   </si>
   <si>
+    <t xml:space="preserve">በመረጃ ባለሞያ ተከሰተ  </t>
+  </si>
+  <si>
     <t>collectedDate</t>
   </si>
   <si>
@@ -286,6 +322,9 @@
     <t>Date de collecte</t>
   </si>
   <si>
+    <t xml:space="preserve">ቀን ተከሰተ  </t>
+  </si>
+  <si>
     <t>collectedDeviceId</t>
   </si>
   <si>
@@ -295,18 +334,27 @@
     <t>Device Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የመሳሪያ መታወቂያ  </t>
+  </si>
+  <si>
     <t>collectedHouseholdId</t>
   </si>
   <si>
     <t>Collected Household Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የተከሰተው የቤተሰብ መታወቂያ  </t>
+  </si>
+  <si>
     <t>collectedMemberId</t>
   </si>
   <si>
     <t>Collected Member Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የተከሰተው የአባል መታወቂያ  </t>
+  </si>
+  <si>
     <t>modules</t>
   </si>
   <si>
@@ -319,6 +367,9 @@
     <t>Accès aux Modules autorisé</t>
   </si>
   <si>
+    <t xml:space="preserve">ለመድረሻዎች የተፈቀደ መዳረሻ </t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -337,6 +388,9 @@
     <t>Masculin</t>
   </si>
   <si>
+    <t xml:space="preserve">ወንድ  </t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
@@ -349,6 +403,9 @@
     <t>Féminin</t>
   </si>
   <si>
+    <t xml:space="preserve">ሴት  </t>
+  </si>
+  <si>
     <t>relationships</t>
   </si>
   <si>
@@ -364,6 +421,9 @@
     <t>Chef de ménage</t>
   </si>
   <si>
+    <t xml:space="preserve">የቤተሰብ አለቃ  </t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
@@ -379,6 +439,9 @@
     <t>Conjoint</t>
   </si>
   <si>
+    <t xml:space="preserve">ባል/ሚስት  </t>
+  </si>
+  <si>
     <t>SON</t>
   </si>
   <si>
@@ -391,6 +454,9 @@
     <t>Fils/fille</t>
   </si>
   <si>
+    <t xml:space="preserve">ልጅ  </t>
+  </si>
+  <si>
     <t>BRO</t>
   </si>
   <si>
@@ -403,6 +469,9 @@
     <t>Frère/Sœur</t>
   </si>
   <si>
+    <t xml:space="preserve">ወንድም/እህት  </t>
+  </si>
+  <si>
     <t>PAR</t>
   </si>
   <si>
@@ -415,6 +484,9 @@
     <t>Père/Mère</t>
   </si>
   <si>
+    <t xml:space="preserve">ወላጅ  </t>
+  </si>
+  <si>
     <t>GCH</t>
   </si>
   <si>
@@ -427,6 +499,9 @@
     <t>Petits-enfants</t>
   </si>
   <si>
+    <t xml:space="preserve">የልጅ ልጅ  </t>
+  </si>
+  <si>
     <t>NOR</t>
   </si>
   <si>
@@ -439,6 +514,9 @@
     <t>Aucune relation</t>
   </si>
   <si>
+    <t xml:space="preserve">ዝምድና የለውም  </t>
+  </si>
+  <si>
     <t>OTH</t>
   </si>
   <si>
@@ -451,6 +529,9 @@
     <t>Autre parent</t>
   </si>
   <si>
+    <t xml:space="preserve">ሌላ ዝምድና  </t>
+  </si>
+  <si>
     <t>DNK</t>
   </si>
   <si>
@@ -463,6 +544,9 @@
     <t>Ne sait pas</t>
   </si>
   <si>
+    <t xml:space="preserve">አያውቅም  </t>
+  </si>
+  <si>
     <t>EXT</t>
   </si>
   <si>
@@ -475,6 +559,9 @@
     <t>Émigration externe</t>
   </si>
   <si>
+    <t xml:space="preserve">ውጫዊ የውጣት እንቅስቃሴ  </t>
+  </si>
+  <si>
     <t>WENT_WITH_RELATIVES</t>
   </si>
   <si>
@@ -487,6 +574,9 @@
     <t>Est allé avec des proches</t>
   </si>
   <si>
+    <t xml:space="preserve">ከቤተሰብ አባላት ጋር ሄደ  </t>
+  </si>
+  <si>
     <t>FARMING</t>
   </si>
   <si>
@@ -499,6 +589,9 @@
     <t>Agriculture</t>
   </si>
   <si>
+    <t xml:space="preserve">ግብርና  </t>
+  </si>
+  <si>
     <t>MARITAL_CHANGE</t>
   </si>
   <si>
@@ -511,6 +604,9 @@
     <t>Changement d'état civil</t>
   </si>
   <si>
+    <t xml:space="preserve">የጋብቻ ሁኔታ ለውጥ  </t>
+  </si>
+  <si>
     <t>FISHING</t>
   </si>
   <si>
@@ -523,6 +619,9 @@
     <t>Pêche</t>
   </si>
   <si>
+    <t xml:space="preserve">አሳ ማግደል  </t>
+  </si>
+  <si>
     <t>EDUCATION</t>
   </si>
   <si>
@@ -535,6 +634,9 @@
     <t>Éducation</t>
   </si>
   <si>
+    <t xml:space="preserve">ትምህርት/ትምህርት ቤት  </t>
+  </si>
+  <si>
     <t>HEALTH_REASON</t>
   </si>
   <si>
@@ -547,6 +649,9 @@
     <t>Santé</t>
   </si>
   <si>
+    <t xml:space="preserve">የጤና ምክንያቶች  </t>
+  </si>
+  <si>
     <t>WORK</t>
   </si>
   <si>
@@ -559,6 +664,9 @@
     <t>Travail</t>
   </si>
   <si>
+    <t xml:space="preserve">ሥራ  </t>
+  </si>
+  <si>
     <t>NEW_HOUSE</t>
   </si>
   <si>
@@ -571,6 +679,9 @@
     <t>Déménagement dans une nouvelle maison</t>
   </si>
   <si>
+    <t xml:space="preserve">ወደ አዲስ ቤት ተዛውሯል  </t>
+  </si>
+  <si>
     <t>OTHER</t>
   </si>
   <si>
@@ -583,6 +694,9 @@
     <t>Autre</t>
   </si>
   <si>
+    <t xml:space="preserve">ሌላ  </t>
+  </si>
+  <si>
     <t>DONT_KNOW</t>
   </si>
   <si>
@@ -601,10 +715,16 @@
     <t>form_name::fr</t>
   </si>
   <si>
+    <t>form_name::am</t>
+  </si>
+  <si>
     <t>rawOutMigration</t>
   </si>
   <si>
     <t>External OutMigration</t>
+  </si>
+  <si>
+    <t>ውጫዊ ውጣት እንቅስቃሴ</t>
   </si>
 </sst>
 </file>
@@ -612,9 +732,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
@@ -657,8 +777,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -672,8 +793,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -687,6 +815,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -695,8 +830,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,22 +869,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,7 +884,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,22 +892,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,7 +907,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,14 +917,6 @@
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -832,7 +952,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,7 +988,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,7 +1036,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,114 +1108,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -988,19 +1120,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,6 +1226,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1117,6 +1267,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,202 +1308,161 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1374,13 +1494,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1399,13 +1533,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1724,10 +1870,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1741,14 +1887,15 @@
     <col min="8" max="8" width="55.6285714285714" customWidth="1"/>
     <col min="9" max="9" width="55.4571428571429" customWidth="1"/>
     <col min="10" max="10" width="52.1809523809524" customWidth="1"/>
-    <col min="11" max="11" width="16.2666666666667" customWidth="1"/>
-    <col min="12" max="12" width="12.1809523809524" customWidth="1"/>
-    <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
-    <col min="15" max="15" width="31" customWidth="1"/>
-    <col min="16" max="16" width="13.4571428571429" customWidth="1"/>
+    <col min="11" max="11" width="40.5714285714286" customWidth="1"/>
+    <col min="12" max="12" width="16.2666666666667" customWidth="1"/>
+    <col min="13" max="13" width="12.1809523809524" customWidth="1"/>
+    <col min="14" max="14" width="9.26666666666667" customWidth="1"/>
+    <col min="16" max="16" width="31" customWidth="1"/>
+    <col min="17" max="17" width="13.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1776,7 +1923,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="30" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1791,480 +1938,535 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="40" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="25" t="s">
         <v>19</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>20</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="19" t="s">
-        <v>20</v>
+      <c r="H2" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="J2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="M2" s="1"/>
       <c r="N2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="30"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="40"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
       <c r="N3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
       <c r="N4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1"/>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
       <c r="N5" t="b">
         <v>1</v>
       </c>
-      <c r="P5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1"/>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
       <c r="N6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
       <c r="N7" t="b">
         <v>1</v>
       </c>
-      <c r="O7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" t="b">
+        <v>56</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" t="b">
         <v>1</v>
       </c>
-      <c r="O8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" ht="13" customHeight="1" spans="1:13">
+      <c r="P8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" ht="13" customHeight="1" spans="1:14">
       <c r="A9" s="1"/>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" t="b">
+        <v>63</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="1"/>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" t="b">
+        <v>69</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" s="1"/>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" t="b">
+        <v>74</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" t="b">
         <v>1</v>
       </c>
-      <c r="O11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" s="16" customFormat="1" spans="1:14">
-      <c r="A12" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>71</v>
+      <c r="P11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" s="22" customFormat="1" spans="1:15">
+      <c r="A12" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="16" t="b">
+        <v>83</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="N12" s="16" t="b">
+      <c r="O12" s="22" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="17" customFormat="1" spans="1:14">
-      <c r="A13" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>76</v>
+    <row r="13" s="23" customFormat="1" spans="1:15">
+      <c r="A13" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="17" t="b">
+        <v>89</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="N13" s="17" t="b">
+      <c r="O13" s="23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="17" customFormat="1" spans="1:17">
-      <c r="A14" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="17" t="s">
+    <row r="14" s="23" customFormat="1" spans="1:18">
+      <c r="A14" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>80</v>
+      <c r="D14" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>93</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="N14" s="17" t="b">
+        <v>93</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="O14" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="Q14" s="17" t="b">
+      <c r="R14" s="23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="17" customFormat="1" spans="1:17">
-      <c r="A15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>82</v>
+    <row r="15" s="23" customFormat="1" spans="1:18">
+      <c r="A15" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="N15" s="17" t="b">
+        <v>96</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="O15" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="Q15" s="17" t="b">
+      <c r="R15" s="23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="17" customFormat="1" spans="1:17">
-      <c r="A16" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>84</v>
+    <row r="16" s="23" customFormat="1" spans="1:18">
+      <c r="A16" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>99</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="N16" s="17" t="b">
+        <v>99</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="O16" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="Q16" s="17" t="b">
+      <c r="R16" s="23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="18" customFormat="1" spans="1:14">
-      <c r="A17" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>87</v>
+    <row r="17" s="24" customFormat="1" spans="1:15">
+      <c r="A17" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="18" t="b">
+        <v>104</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="N17" s="18" t="b">
+      <c r="O17" s="24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" s="1"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1"/>
@@ -2309,27 +2511,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.5428571428571" customWidth="1"/>
     <col min="2" max="2" width="25.8190476190476" customWidth="1"/>
     <col min="3" max="4" width="22.8190476190476" customWidth="1"/>
-    <col min="5" max="5" width="32.6285714285714" customWidth="1"/>
-    <col min="6" max="6" width="13.1809523809524" customWidth="1"/>
+    <col min="5" max="5" width="37.5142857142857" customWidth="1"/>
+    <col min="6" max="6" width="35.0571428571429" customWidth="1"/>
+    <col min="7" max="7" width="13.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2337,516 +2540,606 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6">
+        <v>110</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6">
+        <v>115</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>127</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>132</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>137</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="B9" s="6" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>147</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>152</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>157</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>162</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>167</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>172</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>177</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>182</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="8" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>187</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="8" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>192</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="8" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" t="s">
         <v>162</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E23" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F23" s="20" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" t="s">
-        <v>171</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D22" t="s">
-        <v>175</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>177</v>
-      </c>
-      <c r="C23" t="s">
-        <v>178</v>
-      </c>
-      <c r="D23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="8"/>
       <c r="B24" s="12"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="8"/>
       <c r="B25" s="12"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="8"/>
       <c r="B26" s="12"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="8"/>
       <c r="B27" s="12"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="8"/>
       <c r="B28" s="12"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="8"/>
       <c r="B29" s="12"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="8"/>
       <c r="B30" s="12"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="8"/>
       <c r="B31" s="12"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="8"/>
       <c r="B32" s="12"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="8"/>
       <c r="B33" s="12"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="8"/>
       <c r="B34" s="12"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="8"/>
       <c r="B35" s="12"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-    </row>
-    <row r="37" spans="6:6">
+      <c r="G35" s="10"/>
+    </row>
+    <row r="37" spans="6:7">
       <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="6:6">
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="6:7">
       <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="6:6">
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="6:7">
       <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="6:6">
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="6:7">
       <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="6:6">
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="6:7">
       <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="6:6">
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="6:7">
       <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="6:6">
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="6:7">
       <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="6:6">
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="6:7">
       <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="6:6">
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="6:7">
       <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2858,46 +3151,53 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="21.7238095238095" customWidth="1"/>
     <col min="2" max="2" width="20.4571428571429" customWidth="1"/>
     <col min="3" max="3" width="23.2666666666667" customWidth="1"/>
     <col min="4" max="4" width="25.3619047619048" customWidth="1"/>
+    <col min="5" max="5" width="26.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="C1" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>220</v>
+      </c>
+      <c r="E1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>168</v>
+      </c>
+      <c r="E2" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
